--- a/medicine/Médecine vétérinaire/Joël_Dehasse/Joël_Dehasse.xlsx
+++ b/medicine/Médecine vétérinaire/Joël_Dehasse/Joël_Dehasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Dehasse</t>
+          <t>Joël_Dehasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joël Dehasse, né le 19 février 1956 à Bruxelles, est un vétérinaire belge, coach en comportement animal et bien-être. Il est spécialisé dans le comportement des animaux familiers et dans les interactions entre l'homme et l'animal familier, principalement le chat et le chien. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Dehasse</t>
+          <t>Joël_Dehasse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine vétérinaire de l'université de Liège (1979), comportementaliste (1998) et certifié en systémique et thérapie familiale (1998), membre du Collège européen de médecine vétérinaire comportementale (ECAWBM), Joël Dehasse exerce à Bruxelles.
 Conférencier international, créateur de plusieurs associations comportementales belge (GERC) et européennes (ESVCE, ECVBM-CA), il est l'auteur de nombreux articles scientifiques et populaires, et d'ouvrages de vulgarisation scientifique ; il donne des formations en coaching en comportement animal.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Dehasse</t>
+          <t>Joël_Dehasse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages sur le comportement du chien et du chat
-L'Éducation du chien, de 0 à 6 mois, Éditions de l'Homme, Montréal, 1981 (épuisé).
+          <t>Ouvrages sur le comportement du chien et du chat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Éducation du chien, de 0 à 6 mois, Éditions de l'Homme, Montréal, 1981 (épuisé).
 Le chat cet inconnu, Édition Vander, Bruxelles, 1985-1989-2000 (épuisé).
 Mon chien est d'une humeur de chien, Édition Vander, Bruxelles, 1987 (épuisé).
 Chiens hors du commun (préface de Boris Cyrulnik), Le Jour, Montréal, 1993-1996.
@@ -564,18 +583,7 @@
 Tout sur la psychologie du chien, Odile Jacob, Paris, 2009.
 Changer le comportement de mon chien en 7 jours, Odile Jacob, Paris, 2012.
 Pourquoi un chien intelligent fait-il des choses stupides? Kindle Amazon, 2016
-La stérilisation du chien. Pour ou contre? Kindle Amazon, 2017
-Bande dessinée
-Ma vie de chat, (dessins Bruno Marchand), Delcourt, Paris, 1991.
-Nouvelle, roman
-Je nage avec les dauphins sauvages, i'M éditions, Bruxelles, 2008.
-Luce, le voyage de lumière, Amazon, Kindle édition, 2012
-Ouvrages collectifs
-Le comportement du chien et du chat (Observer, comprendre, modifier), sous la direction de D. Cloutier, CCDMD éditions, Montréal, 2008.
-La zoothérapie, sous la direction de G.-H. Arenstein et J. Lessard, Option Santé Édition, Québec, 2010.
-Secrets de psys (Ce qu'il faut savoir pour aller bien), sous la direction de C. André, Odile Jacob, Paris, 2011.
-Documentaire télévisé
-2000 : Il ne leur manque que la parole réalisé par Alain Dex[1].</t>
+La stérilisation du chien. Pour ou contre? Kindle Amazon, 2017</t>
         </is>
       </c>
     </row>
@@ -585,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Dehasse</t>
+          <t>Joël_Dehasse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,12 +608,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinction et récompense</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grand prix FAFVAC 2014, pour le vétérinaire qui a permis de faire progresser (sa spécialisation dans) la profession vétérinaire dans le domaine des animaux de compagnie dans son pays et son développement dans l'ensemble de la francophonie.</t>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ma vie de chat, (dessins Bruno Marchand), Delcourt, Paris, 1991.</t>
         </is>
       </c>
     </row>
@@ -615,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Dehasse</t>
+          <t>Joël_Dehasse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,10 +644,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle, roman</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Je nage avec les dauphins sauvages, i'M éditions, Bruxelles, 2008.
+Luce, le voyage de lumière, Amazon, Kindle édition, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joël_Dehasse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Dehasse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le comportement du chien et du chat (Observer, comprendre, modifier), sous la direction de D. Cloutier, CCDMD éditions, Montréal, 2008.
+La zoothérapie, sous la direction de G.-H. Arenstein et J. Lessard, Option Santé Édition, Québec, 2010.
+Secrets de psys (Ce qu'il faut savoir pour aller bien), sous la direction de C. André, Odile Jacob, Paris, 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joël_Dehasse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Dehasse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Documentaire télévisé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2000 : Il ne leur manque que la parole réalisé par Alain Dex.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joël_Dehasse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Dehasse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinction et récompense</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Grand prix FAFVAC 2014, pour le vétérinaire qui a permis de faire progresser (sa spécialisation dans) la profession vétérinaire dans le domaine des animaux de compagnie dans son pays et son développement dans l'ensemble de la francophonie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joël_Dehasse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABl_Dehasse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« La première cause des troubles de comportement du chien familier est l'ennui ! »[évasif]</t>
         </is>
